--- a/Team-Data/2011-12/3-1-2011-12.xlsx
+++ b/Team-Data/2011-12/3-1-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -792,13 +859,13 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -935,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -992,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1174,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1675,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1714,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1866,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1884,16 +1951,16 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2221,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2257,13 +2324,13 @@
         <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>5</v>
       </c>
       <c r="AY10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2403,16 +2470,16 @@
         <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2668,94 +2735,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T13" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,10 +2831,10 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2776,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,25 +2858,25 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2818,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
@@ -3000,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -3122,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3161,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>19</v>
@@ -3173,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
@@ -3182,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8</v>
+        <v>0.794</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,46 +3299,46 @@
         <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L16" t="n">
         <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.402</v>
+        <v>0.398</v>
       </c>
       <c r="O16" t="n">
         <v>20.6</v>
       </c>
       <c r="P16" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q16" t="n">
         <v>0.784</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
         <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
@@ -3280,19 +3347,19 @@
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
         <v>21.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3346,19 +3413,19 @@
         <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -3522,16 +3589,16 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,46 +3663,46 @@
         <v>35.1</v>
       </c>
       <c r="J18" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="O18" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P18" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T18" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3647,34 +3714,34 @@
         <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB18" t="n">
         <v>96.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3683,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>5</v>
@@ -3701,25 +3768,25 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3898,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4074,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="n">
         <v>16</v>
       </c>
-      <c r="AG21" t="n">
-        <v>15</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
@@ -4250,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.806</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,10 +4391,10 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>6.8</v>
@@ -4336,7 +4403,7 @@
         <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
         <v>21.8</v>
@@ -4345,49 +4412,49 @@
         <v>27.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R22" t="n">
         <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U22" t="n">
         <v>18.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
         <v>102.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4408,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4432,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.622</v>
+        <v>0.639</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4518,28 +4585,28 @@
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O23" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.654</v>
+        <v>0.653</v>
       </c>
       <c r="R23" t="n">
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
@@ -4548,7 +4615,7 @@
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>4.4</v>
@@ -4557,16 +4624,16 @@
         <v>17.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4575,10 +4642,10 @@
         <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
@@ -4629,19 +4696,19 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ23" t="n">
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4811,7 +4878,7 @@
         <v>21</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.429</v>
+        <v>0.412</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P25" t="n">
         <v>19.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
@@ -4903,34 +4970,34 @@
         <v>41.3</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AA25" t="n">
         <v>19.1</v>
       </c>
-      <c r="AA25" t="n">
-        <v>19.2</v>
-      </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.1</v>
+        <v>-2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4948,16 +5015,16 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
         <v>11</v>
       </c>
-      <c r="AL25" t="n">
-        <v>12</v>
-      </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="n">
         <v>15</v>
@@ -4978,22 +5045,22 @@
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5052,46 +5119,46 @@
         <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>6.7</v>
       </c>
       <c r="M26" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O26" t="n">
         <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
         <v>30.8</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V26" t="n">
         <v>14.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X26" t="n">
         <v>5.4</v>
@@ -5103,31 +5170,31 @@
         <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5139,7 +5206,7 @@
         <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN26" t="n">
         <v>16</v>
@@ -5154,22 +5221,22 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5181,7 +5248,7 @@
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.343</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J27" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.413</v>
+        <v>0.411</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
         <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
       <c r="O27" t="n">
         <v>18.6</v>
       </c>
       <c r="P27" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S27" t="n">
         <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="V27" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
         <v>22</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>2</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -5342,16 +5409,16 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5360,10 +5427,10 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5524,7 +5591,7 @@
         <v>12</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5706,19 +5773,19 @@
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
       </c>
       <c r="AV29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-1</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -5855,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
         <v>10</v>
@@ -5876,7 +5943,7 @@
         <v>8</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5891,10 +5958,10 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2011-12</t>
+          <t>2012-03-01</t>
         </is>
       </c>
     </row>
